--- a/src/PeStopAnnualReport/PSARTests/Data/invalid_package_year_sheet.xlsx
+++ b/src/PeStopAnnualReport/PSARTests/Data/invalid_package_year_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eu\GitHub\PeStop\src\PeStopAnnualReport\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eu\GitHub\PeStop\src\PeStopAnnualReport\PSARTests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB5C5A6-66E4-481C-BBD6-84FE0917449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77237DC7-E28F-4EC1-A566-61052416EA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -462,27 +462,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>2025</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""Aprilie 2025!G1"")"),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1">
-        <v>50</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>2025</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>

--- a/src/PeStopAnnualReport/PSARTests/Data/invalid_package_year_sheet.xlsx
+++ b/src/PeStopAnnualReport/PSARTests/Data/invalid_package_year_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eu\GitHub\PeStop\src\PeStopAnnualReport\PSARTests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77237DC7-E28F-4EC1-A566-61052416EA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8098DA93-4BC8-4268-8E11-AD494EB542AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/src/PeStopAnnualReport/PSARTests/Data/invalid_package_year_sheet.xlsx
+++ b/src/PeStopAnnualReport/PSARTests/Data/invalid_package_year_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eu\GitHub\PeStop\src\PeStopAnnualReport\PSARTests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8098DA93-4BC8-4268-8E11-AD494EB542AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD416F7-3DFD-43B9-9889-7DE68C169727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pachete" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>an</t>
   </si>
@@ -41,9 +41,6 @@
     <t>luna</t>
   </si>
   <si>
-    <t>nr_pac_buc</t>
-  </si>
-  <si>
     <t>nr_pac_tulcea</t>
   </si>
   <si>
@@ -104,13 +101,16 @@
     <t>educatie_menstruala</t>
   </si>
   <si>
-    <t>voluntari_buc</t>
-  </si>
-  <si>
     <t>voluntari_tulcea</t>
   </si>
   <si>
     <t>voluntari_vaslui</t>
+  </si>
+  <si>
+    <t>nr_pac_bucuresti</t>
+  </si>
+  <si>
+    <t>voluntari_bucuresti</t>
   </si>
 </sst>
 </file>
@@ -382,8 +382,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -399,13 +399,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -413,7 +413,7 @@
         <v>2025</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""Ianuarie_2025!G1"")"),574)</f>
@@ -431,7 +431,7 @@
         <v>2025</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""Februarie 2025!G1"")"),550)</f>
@@ -449,7 +449,7 @@
         <v>2025</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -464,7 +464,7 @@
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -473,7 +473,7 @@
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""Mai 2025!G1"")"),602)</f>
@@ -491,7 +491,7 @@
         <v>2025</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""Iunie 2025!G1"")"),551)</f>
@@ -509,7 +509,7 @@
         <v>2025</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""Iulie 2025!G1"")"),607)</f>
@@ -527,7 +527,7 @@
         <v>2025</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""August 2025!G1"")"),0)</f>
@@ -543,7 +543,7 @@
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""Septembrie 2025!G1"")"),0)</f>
@@ -559,7 +559,7 @@
         <v>2025</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""Octombrie 2025!G1"")"),0)</f>
@@ -577,7 +577,7 @@
         <v>2025</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>2025</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""Decembrie 2025!G1"")"),0)</f>
@@ -633,16 +633,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -657,7 +657,7 @@
         <v>630</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -670,7 +670,7 @@
         <v>540</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -685,7 +685,7 @@
         <v>2880</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -697,7 +697,7 @@
         <v>1890</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -710,32 +710,68 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="1">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="1">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
